--- a/data/data50.xlsx
+++ b/data/data50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A631617B-58A4-4F8E-B9F4-9F62E0DC6773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF5BD61-B482-4A2A-9C92-23EC66CCBBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="12360" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="14970" yWindow="735" windowWidth="13050" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +641,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -668,7 +664,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
@@ -691,7 +687,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>60</v>
@@ -706,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>45327</v>
+        <v>45337</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -714,7 +710,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
@@ -737,7 +733,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>60</v>
@@ -749,7 +745,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2">
         <v>45332</v>
@@ -760,7 +756,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
@@ -783,7 +779,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>60</v>
@@ -806,7 +802,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>30</v>
@@ -829,7 +825,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>30</v>
@@ -852,7 +848,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
@@ -875,7 +871,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>30</v>
@@ -898,7 +894,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>30</v>
@@ -921,7 +917,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>20</v>
@@ -944,7 +940,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
@@ -967,7 +963,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
@@ -990,7 +986,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -1019,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1051,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1069,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1077,13 +1073,13 @@
         <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1091,26 +1087,12 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
         <v>10</v>
       </c>
     </row>

--- a/data/data50.xlsx
+++ b/data/data50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\공정최적화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF5BD61-B482-4A2A-9C92-23EC66CCBBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA5DAB-7CCD-4B09-BDF3-8D24523B5C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14970" yWindow="735" windowWidth="13050" windowHeight="11295" activeTab="1" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{D2890F65-2F58-491C-B286-006E1262128E}"/>
   </bookViews>
   <sheets>
     <sheet name="블록데이터" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>블록명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>납기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정반배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,20 +507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2787804F-A702-4EC6-9C9E-63E03FBD6970}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,13 +538,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -566,13 +558,10 @@
       <c r="F2" s="2">
         <v>45335</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>50</v>
@@ -589,13 +578,10 @@
       <c r="F3" s="2">
         <v>45346</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
@@ -612,13 +598,10 @@
       <c r="F4" s="2">
         <v>45335</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -635,13 +618,10 @@
       <c r="F5" s="2">
         <v>45347</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>50</v>
@@ -658,13 +638,10 @@
       <c r="F6" s="2">
         <v>45337</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>50</v>
@@ -681,13 +658,10 @@
       <c r="F7" s="2">
         <v>45348</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>60</v>
@@ -704,13 +678,10 @@
       <c r="F8" s="2">
         <v>45337</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
@@ -727,13 +698,10 @@
       <c r="F9" s="2">
         <v>45335</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>60</v>
@@ -750,13 +718,10 @@
       <c r="F10" s="2">
         <v>45332</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>60</v>
@@ -773,13 +738,10 @@
       <c r="F11" s="2">
         <v>45334</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>60</v>
@@ -796,13 +758,10 @@
       <c r="F12" s="2">
         <v>45337</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>30</v>
@@ -819,13 +778,10 @@
       <c r="F13" s="2">
         <v>45332</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>30</v>
@@ -842,13 +798,10 @@
       <c r="F14" s="2">
         <v>45332</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
@@ -865,13 +818,10 @@
       <c r="F15" s="2">
         <v>45347</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>30</v>
@@ -888,13 +838,10 @@
       <c r="F16" s="2">
         <v>45334</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>30</v>
@@ -911,13 +858,10 @@
       <c r="F17" s="2">
         <v>45347</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>20</v>
@@ -934,13 +878,10 @@
       <c r="F18" s="2">
         <v>45332</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>20</v>
@@ -957,13 +898,10 @@
       <c r="F19" s="2">
         <v>45334</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
@@ -980,13 +918,10 @@
       <c r="F20" s="2">
         <v>45347</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -1002,9 +937,6 @@
       </c>
       <c r="F21" s="2">
         <v>45337</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2260BA3D-366E-49EC-9860-D8AFC0BE49FC}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1028,10 +960,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1042,7 +974,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -1056,7 +988,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -1070,7 +1002,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
@@ -1084,7 +1016,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
